--- a/xlsx/加布里埃尔·阿尔蒙德_intext.xlsx
+++ b/xlsx/加布里埃尔·阿尔蒙德_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>加布里埃尔·阿尔蒙德</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_加布里埃尔·阿尔蒙德</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_加布里埃尔·阿尔蒙德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%B8%9B%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A6%E8%BF%AA%E9%80%8A%E4%BF%A1%E6%81%AF%E8%87%AA%E7%94%B1%E5%A5%96</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E8%AA%BF%E6%9F%A5%E5%9C%98</t>
   </si>
   <si>
-    <t>美國戰略轟炸調查團</t>
+    <t>美国战略轰炸调查团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
@@ -119,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>芝加哥大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E7%90%86%E7%A7%91%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1011,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1040,10 +1037,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1069,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1098,10 +1095,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1127,10 +1124,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1156,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1185,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1214,10 +1211,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1243,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1272,10 +1269,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1301,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
